--- a/3.10/left.xlsx
+++ b/3.10/left.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\3.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Dropbox/Documents/GitHub/students.mathsnz.com/3.10/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -179,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,9 +283,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -312,9 +318,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -497,17 +503,17 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="2" max="2" width="55.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -548,7 +554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='3.10_1.html'&gt;</v>
@@ -580,7 +586,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A24" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='3.10_1_1.html' class='indent'&gt;</v>
@@ -612,18 +618,18 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M24" si="4">"http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/"&amp;G3&amp;".pdf&amp;embedded=true"</f>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/1_1.pdf&amp;embedded=true</v>
+        <f>"https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/"&amp;G3&amp;".pdf&amp;embedded=true"</f>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/1_1.pdf&amp;embedded=true</v>
       </c>
       <c r="N3" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O3&amp;"2,"&amp;O3&amp;"3,"&amp;O3&amp;"4,"&amp;O3&amp;"5,"&amp;O3&amp;"6,"</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference1problem12,formalinference1problem13,formalinference1problem14,formalinference1problem15,formalinference1problem16,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O3&amp;"2,"&amp;O3&amp;"3,"&amp;O3&amp;"4,"&amp;O3&amp;"5,"&amp;O3&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference1problem12,formalinference1problem13,formalinference1problem14,formalinference1problem15,formalinference1problem16,</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_1_2.html' class='indent'&gt;</v>
@@ -655,18 +661,18 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/1_2.pdf&amp;embedded=true</v>
+        <f t="shared" ref="M4:M24" si="4">"https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/"&amp;G4&amp;".pdf&amp;embedded=true"</f>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/1_2.pdf&amp;embedded=true</v>
       </c>
       <c r="N4" t="str">
-        <f>"http://students.mathsnz.com/qg/onscreen.html#"&amp;O4&amp;"2,"&amp;O4&amp;"3,"&amp;O4&amp;"4,"&amp;O4&amp;"5,"&amp;O4&amp;"6,"</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference1problem22,formalinference1problem23,formalinference1problem24,formalinference1problem25,formalinference1problem26,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O4&amp;"2,"&amp;O4&amp;"3,"&amp;O4&amp;"4,"&amp;O4&amp;"5,"&amp;O4&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference1problem22,formalinference1problem23,formalinference1problem24,formalinference1problem25,formalinference1problem26,</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_2.html'&gt;</v>
@@ -699,10 +705,10 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/2.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_3.html'&gt;</v>
@@ -735,10 +741,10 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/3.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/3.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_4.html'&gt;</v>
@@ -771,10 +777,10 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/4.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/4.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5.html'&gt;</v>
@@ -807,10 +813,10 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/5.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_1.html' class='indent'&gt;</v>
@@ -843,17 +849,17 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/5_1.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_1.pdf&amp;embedded=true</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" ref="N9:N19" si="7">"http://students.mathsnz.com/qg/onscreen.html#"&amp;O9&amp;"2,"&amp;O9&amp;"3,"&amp;O9&amp;"4,"&amp;O9&amp;"5,"&amp;O9&amp;"6,"</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference5analysis12,formalinference5analysis13,formalinference5analysis14,formalinference5analysis15,formalinference5analysis16,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O9&amp;"2,"&amp;O9&amp;"3,"&amp;O9&amp;"4,"&amp;O9&amp;"5,"&amp;O9&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis12,formalinference5analysis13,formalinference5analysis14,formalinference5analysis15,formalinference5analysis16,</v>
       </c>
       <c r="O9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_2.html' class='indent'&gt;</v>
@@ -886,17 +892,17 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/5_2.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_2.pdf&amp;embedded=true</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference5analysis22,formalinference5analysis23,formalinference5analysis24,formalinference5analysis25,formalinference5analysis26,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O10&amp;"2,"&amp;O10&amp;"3,"&amp;O10&amp;"4,"&amp;O10&amp;"5,"&amp;O10&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis22,formalinference5analysis23,formalinference5analysis24,formalinference5analysis25,formalinference5analysis26,</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_3.html' class='indent'&gt;</v>
@@ -929,17 +935,17 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/5_3.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_3.pdf&amp;embedded=true</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference5analysis32,formalinference5analysis33,formalinference5analysis34,formalinference5analysis35,formalinference5analysis36,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O11&amp;"2,"&amp;O11&amp;"3,"&amp;O11&amp;"4,"&amp;O11&amp;"5,"&amp;O11&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis32,formalinference5analysis33,formalinference5analysis34,formalinference5analysis35,formalinference5analysis36,</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_4.html' class='indent'&gt;</v>
@@ -972,17 +978,17 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/5_4.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_4.pdf&amp;embedded=true</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference5analysis42,formalinference5analysis43,formalinference5analysis44,formalinference5analysis45,formalinference5analysis46,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O12&amp;"2,"&amp;O12&amp;"3,"&amp;O12&amp;"4,"&amp;O12&amp;"5,"&amp;O12&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis42,formalinference5analysis43,formalinference5analysis44,formalinference5analysis45,formalinference5analysis46,</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_5.html' class='indent'&gt;</v>
@@ -1015,17 +1021,17 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/5_5.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_5.pdf&amp;embedded=true</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference5analysis52,formalinference5analysis53,formalinference5analysis54,formalinference5analysis55,formalinference5analysis56,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O13&amp;"2,"&amp;O13&amp;"3,"&amp;O13&amp;"4,"&amp;O13&amp;"5,"&amp;O13&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis52,formalinference5analysis53,formalinference5analysis54,formalinference5analysis55,formalinference5analysis56,</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_6.html' class='indent'&gt;</v>
@@ -1058,17 +1064,17 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/5_6.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_6.pdf&amp;embedded=true</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference5analysis62,formalinference5analysis63,formalinference5analysis64,formalinference5analysis65,formalinference5analysis66,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O14&amp;"2,"&amp;O14&amp;"3,"&amp;O14&amp;"4,"&amp;O14&amp;"5,"&amp;O14&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis62,formalinference5analysis63,formalinference5analysis64,formalinference5analysis65,formalinference5analysis66,</v>
       </c>
       <c r="O14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_7.html' class='indent'&gt;</v>
@@ -1101,17 +1107,17 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/5_7.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_7.pdf&amp;embedded=true</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference5analysis72,formalinference5analysis73,formalinference5analysis74,formalinference5analysis75,formalinference5analysis76,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O15&amp;"2,"&amp;O15&amp;"3,"&amp;O15&amp;"4,"&amp;O15&amp;"5,"&amp;O15&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis72,formalinference5analysis73,formalinference5analysis74,formalinference5analysis75,formalinference5analysis76,</v>
       </c>
       <c r="O15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_6.html'&gt;</v>
@@ -1144,10 +1150,10 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/6.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/6.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_7.html'&gt;</v>
@@ -1163,11 +1169,11 @@
         <v>Part 7</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17:F21" si="8">RIGHT(E17,LEN(E17)-FIND(" ",E17))</f>
+        <f t="shared" ref="F17:F21" si="7">RIGHT(E17,LEN(E17)-FIND(" ",E17))</f>
         <v>7</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" ref="G17:G21" si="9">SUBSTITUTE(F17,".","_")</f>
+        <f t="shared" ref="G17:G21" si="8">SUBSTITUTE(F17,".","_")</f>
         <v>7</v>
       </c>
       <c r="H17" t="str">
@@ -1180,10 +1186,10 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/7.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/7.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_7a.html'&gt;</v>
@@ -1199,13 +1205,13 @@
         <v>Part 7a</v>
       </c>
       <c r="F18" t="str">
+        <f t="shared" si="7"/>
+        <v>7a</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="8"/>
         <v>7a</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="9"/>
-        <v>7a</v>
-      </c>
       <c r="H18" t="str">
         <f t="shared" si="2"/>
         <v>3.10_7a</v>
@@ -1216,17 +1222,17 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/7a.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/7a.pdf&amp;embedded=true</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference7analysis2,formalinference7analysis3,formalinference7analysis4,formalinference7analysis5,formalinference7analysis6,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O18&amp;"2,"&amp;O18&amp;"3,"&amp;O18&amp;"4,"&amp;O18&amp;"5,"&amp;O18&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference7analysis2,formalinference7analysis3,formalinference7analysis4,formalinference7analysis5,formalinference7analysis6,</v>
       </c>
       <c r="O18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_8.html'&gt;</v>
@@ -1242,13 +1248,13 @@
         <v>Part 8</v>
       </c>
       <c r="F19" t="str">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
       <c r="H19" t="str">
         <f t="shared" si="2"/>
         <v>3.10_8</v>
@@ -1259,17 +1265,17 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/8.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/8.pdf&amp;embedded=true</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#formalinference8conclusion2,formalinference8conclusion3,formalinference8conclusion4,formalinference8conclusion5,formalinference8conclusion6,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O19&amp;"2,"&amp;O19&amp;"3,"&amp;O19&amp;"4,"&amp;O19&amp;"5,"&amp;O19&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference8conclusion2,formalinference8conclusion3,formalinference8conclusion4,formalinference8conclusion5,formalinference8conclusion6,</v>
       </c>
       <c r="O19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_9a.html'&gt;</v>
@@ -1285,13 +1291,13 @@
         <v>Part 9a</v>
       </c>
       <c r="F20" t="str">
+        <f t="shared" si="7"/>
+        <v>9a</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="8"/>
         <v>9a</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="9"/>
-        <v>9a</v>
-      </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
         <v>3.10_9a</v>
@@ -1302,10 +1308,10 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/9a.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/9a.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>"&lt;a href='"&amp;H21&amp;".html'"&amp;I21&amp;"&gt;"</f>
         <v>&lt;a href='3.10_9b.html'&gt;</v>
@@ -1321,13 +1327,13 @@
         <v>Part 9b</v>
       </c>
       <c r="F21" t="str">
+        <f t="shared" si="7"/>
+        <v>9b</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="8"/>
         <v>9b</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="9"/>
-        <v>9b</v>
-      </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
         <v>3.10_9b</v>
@@ -1338,10 +1344,10 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/9b.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/9b.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_app1.html'&gt;</v>
@@ -1356,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G24" si="10">SUBSTITUTE(F22,".","_")</f>
+        <f t="shared" ref="G22:G24" si="9">SUBSTITUTE(F22,".","_")</f>
         <v>app1</v>
       </c>
       <c r="H22" t="str">
@@ -1369,10 +1375,10 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/app1.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/app1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_app2.html'&gt;</v>
@@ -1387,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>app2</v>
       </c>
       <c r="H23" t="str">
@@ -1400,10 +1406,10 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/app2.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/app2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_app3.html'&gt;</v>
@@ -1418,7 +1424,7 @@
         <v>14</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>app3</v>
       </c>
       <c r="H24" t="str">
@@ -1431,7 +1437,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="4"/>
-        <v>http://docs.google.com/viewer?url=http://students.mathsnz.com/3.10/pdfs/app3.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/app3.pdf&amp;embedded=true</v>
       </c>
     </row>
   </sheetData>

--- a/3.10/left.xlsx
+++ b/3.10/left.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Dropbox/Documents/GitHub/students.mathsnz.com/3.10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\3.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540"/>
+    <workbookView xWindow="1020" yWindow="456" windowWidth="27780" windowHeight="17544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>&lt;/a&gt;</t>
   </si>
@@ -116,18 +116,6 @@
     <t>Part 5.3: Shift – Comparing the Medians and Quartiles</t>
   </si>
   <si>
-    <t>Part 5.4: Shift – Overall Visual Spread Calculation</t>
-  </si>
-  <si>
-    <t>Part 5.5: Spread</t>
-  </si>
-  <si>
-    <t>Part 5.6: Shape</t>
-  </si>
-  <si>
-    <t>Part 5.7: Special Features</t>
-  </si>
-  <si>
     <t>Part 6: Bootstrapping Activity</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>formalinference5analysis3</t>
   </si>
   <si>
-    <t>formalinference5analysis4</t>
-  </si>
-  <si>
     <t>formalinference5analysis5</t>
   </si>
   <si>
@@ -180,12 +165,21 @@
   </si>
   <si>
     <t>formalinference8conclusion</t>
+  </si>
+  <si>
+    <t>Part 5.4: Spread</t>
+  </si>
+  <si>
+    <t>Part 5.5: Shape</t>
+  </si>
+  <si>
+    <t>Part 5.6: Special Features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,21 +493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="A2" sqref="A2:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -554,7 +548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='3.10_1.html'&gt;</v>
@@ -586,9 +580,9 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A24" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
+        <f t="shared" ref="A3:A23" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='3.10_1_1.html' class='indent'&gt;</v>
       </c>
       <c r="B3" t="s">
@@ -606,15 +600,15 @@
         <v>1.1</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G16" si="1">SUBSTITUTE(F3,".","_")</f>
+        <f t="shared" ref="G3:G15" si="1">SUBSTITUTE(F3,".","_")</f>
         <v>1_1</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H24" si="2">"3.10_"&amp;G3</f>
+        <f t="shared" ref="H3:H23" si="2">"3.10_"&amp;G3</f>
         <v>3.10_1_1</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I24" si="3">IF(ISNUMBER(SEARCH("_",G3))," class='indent'","")</f>
+        <f t="shared" ref="I3:I23" si="3">IF(ISNUMBER(SEARCH("_",G3))," class='indent'","")</f>
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M3" t="str">
@@ -626,10 +620,10 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#formalinference1problem12,formalinference1problem13,formalinference1problem14,formalinference1problem15,formalinference1problem16,</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_1_2.html' class='indent'&gt;</v>
@@ -661,7 +655,7 @@
         <v xml:space="preserve"> class='indent'</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M24" si="4">"https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/"&amp;G4&amp;".pdf&amp;embedded=true"</f>
+        <f t="shared" ref="M4:M23" si="4">"https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/"&amp;G4&amp;".pdf&amp;embedded=true"</f>
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/1_2.pdf&amp;embedded=true</v>
       </c>
       <c r="N4" t="str">
@@ -669,10 +663,10 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#formalinference1problem22,formalinference1problem23,formalinference1problem24,formalinference1problem25,formalinference1problem26,</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_2.html'&gt;</v>
@@ -684,11 +678,11 @@
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E21" si="5">LEFT(B5,FIND(":",B5)-1)</f>
+        <f t="shared" ref="E5:E20" si="5">LEFT(B5,FIND(":",B5)-1)</f>
         <v>Part 2</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F16" si="6">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
+        <f t="shared" ref="F5:F15" si="6">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
         <v>2</v>
       </c>
       <c r="G5" t="str">
@@ -708,7 +702,7 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/2.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_3.html'&gt;</v>
@@ -744,7 +738,7 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/3.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_4.html'&gt;</v>
@@ -780,7 +774,7 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/4.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5.html'&gt;</v>
@@ -816,7 +810,7 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_1.html' class='indent'&gt;</v>
@@ -852,14 +846,14 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_1.pdf&amp;embedded=true</v>
       </c>
       <c r="N9" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O9&amp;"2,"&amp;O9&amp;"3,"&amp;O9&amp;"4,"&amp;O9&amp;"5,"&amp;O9&amp;"6,"</f>
+        <f t="shared" ref="N9:N14" si="7">"https://students.mathsnz.com/qg/onscreen.html#"&amp;O9&amp;"2,"&amp;O9&amp;"3,"&amp;O9&amp;"4,"&amp;O9&amp;"5,"&amp;O9&amp;"6,"</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis12,formalinference5analysis13,formalinference5analysis14,formalinference5analysis15,formalinference5analysis16,</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_2.html' class='indent'&gt;</v>
@@ -895,14 +889,14 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_2.pdf&amp;embedded=true</v>
       </c>
       <c r="N10" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O10&amp;"2,"&amp;O10&amp;"3,"&amp;O10&amp;"4,"&amp;O10&amp;"5,"&amp;O10&amp;"6,"</f>
+        <f t="shared" si="7"/>
         <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis22,formalinference5analysis23,formalinference5analysis24,formalinference5analysis25,formalinference5analysis26,</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_3.html' class='indent'&gt;</v>
@@ -938,20 +932,20 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_3.pdf&amp;embedded=true</v>
       </c>
       <c r="N11" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O11&amp;"2,"&amp;O11&amp;"3,"&amp;O11&amp;"4,"&amp;O11&amp;"5,"&amp;O11&amp;"6,"</f>
+        <f t="shared" si="7"/>
         <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis32,formalinference5analysis33,formalinference5analysis34,formalinference5analysis35,formalinference5analysis36,</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_4.html' class='indent'&gt;</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -981,20 +975,20 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_4.pdf&amp;embedded=true</v>
       </c>
       <c r="N12" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O12&amp;"2,"&amp;O12&amp;"3,"&amp;O12&amp;"4,"&amp;O12&amp;"5,"&amp;O12&amp;"6,"</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis42,formalinference5analysis43,formalinference5analysis44,formalinference5analysis45,formalinference5analysis46,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis52,formalinference5analysis53,formalinference5analysis54,formalinference5analysis55,formalinference5analysis56,</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_5.html' class='indent'&gt;</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -1024,20 +1018,20 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_5.pdf&amp;embedded=true</v>
       </c>
       <c r="N13" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O13&amp;"2,"&amp;O13&amp;"3,"&amp;O13&amp;"4,"&amp;O13&amp;"5,"&amp;O13&amp;"6,"</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis52,formalinference5analysis53,formalinference5analysis54,formalinference5analysis55,formalinference5analysis56,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis62,formalinference5analysis63,formalinference5analysis64,formalinference5analysis65,formalinference5analysis66,</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='3.10_5_6.html' class='indent'&gt;</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -1067,82 +1061,75 @@
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_6.pdf&amp;embedded=true</v>
       </c>
       <c r="N14" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O14&amp;"2,"&amp;O14&amp;"3,"&amp;O14&amp;"4,"&amp;O14&amp;"5,"&amp;O14&amp;"6,"</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis62,formalinference5analysis63,formalinference5analysis64,formalinference5analysis65,formalinference5analysis66,</v>
+        <f t="shared" si="7"/>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis72,formalinference5analysis73,formalinference5analysis74,formalinference5analysis75,formalinference5analysis76,</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href='3.10_5_7.html' class='indent'&gt;</v>
+        <v>&lt;a href='3.10_6.html'&gt;</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="5"/>
-        <v>Part 5.7</v>
+        <v>Part 6</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="6"/>
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>5_7</v>
+        <v>6</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
-        <v>3.10_5_7</v>
+        <v>3.10_6</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> class='indent'</v>
+        <v/>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="4"/>
-        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/5_7.pdf&amp;embedded=true</v>
-      </c>
-      <c r="N15" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O15&amp;"2,"&amp;O15&amp;"3,"&amp;O15&amp;"4,"&amp;O15&amp;"5,"&amp;O15&amp;"6,"</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference5analysis72,formalinference5analysis73,formalinference5analysis74,formalinference5analysis75,formalinference5analysis76,</v>
-      </c>
-      <c r="O15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/6.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href='3.10_6.html'&gt;</v>
+        <v>&lt;a href='3.10_7.html'&gt;</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="5"/>
-        <v>Part 6</v>
+        <v>Part 7</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" ref="F16:F20" si="8">RIGHT(E16,LEN(E16)-FIND(" ",E16))</f>
+        <v>7</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" ref="G16:G20" si="9">SUBSTITUTE(F16,".","_")</f>
+        <v>7</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="2"/>
-        <v>3.10_6</v>
+        <v>3.10_7</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="3"/>
@@ -1150,71 +1137,78 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="4"/>
-        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/6.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/7.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href='3.10_7.html'&gt;</v>
+        <v>&lt;a href='3.10_7a.html'&gt;</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="5"/>
-        <v>Part 7</v>
+        <v>Part 7a</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17:F21" si="7">RIGHT(E17,LEN(E17)-FIND(" ",E17))</f>
-        <v>7</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" ref="G17:G21" si="8">SUBSTITUTE(F17,".","_")</f>
-        <v>7</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>3.10_7</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/7.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.10_7a.html'&gt;</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="5"/>
-        <v>Part 7a</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="7"/>
-        <v>7a</v>
-      </c>
-      <c r="G18" t="str">
         <f t="shared" si="8"/>
         <v>7a</v>
       </c>
+      <c r="G17" t="str">
+        <f t="shared" si="9"/>
+        <v>7a</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>3.10_7a</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/7a.pdf&amp;embedded=true</v>
+      </c>
+      <c r="N17" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O17&amp;"2,"&amp;O17&amp;"3,"&amp;O17&amp;"4,"&amp;O17&amp;"5,"&amp;O17&amp;"6,"</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference7analysis2,formalinference7analysis3,formalinference7analysis4,formalinference7analysis5,formalinference7analysis6,</v>
+      </c>
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.10_8.html'&gt;</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="5"/>
+        <v>Part 8</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
       <c r="H18" t="str">
         <f t="shared" si="2"/>
-        <v>3.10_7a</v>
+        <v>3.10_8</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="3"/>
@@ -1222,121 +1216,109 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="4"/>
-        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/7a.pdf&amp;embedded=true</v>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/8.pdf&amp;embedded=true</v>
       </c>
       <c r="N18" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O18&amp;"2,"&amp;O18&amp;"3,"&amp;O18&amp;"4,"&amp;O18&amp;"5,"&amp;O18&amp;"6,"</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference7analysis2,formalinference7analysis3,formalinference7analysis4,formalinference7analysis5,formalinference7analysis6,</v>
+        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference8conclusion2,formalinference8conclusion3,formalinference8conclusion4,formalinference8conclusion5,formalinference8conclusion6,</v>
       </c>
       <c r="O18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href='3.10_8.html'&gt;</v>
+        <v>&lt;a href='3.10_9a.html'&gt;</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="5"/>
-        <v>Part 8</v>
+        <v>Part 9a</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>3.10_8</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/8.pdf&amp;embedded=true</v>
-      </c>
-      <c r="N19" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O19&amp;"2,"&amp;O19&amp;"3,"&amp;O19&amp;"4,"&amp;O19&amp;"5,"&amp;O19&amp;"6,"</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#formalinference8conclusion2,formalinference8conclusion3,formalinference8conclusion4,formalinference8conclusion5,formalinference8conclusion6,</v>
-      </c>
-      <c r="O19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.10_9a.html'&gt;</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="5"/>
-        <v>Part 9a</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="7"/>
-        <v>9a</v>
-      </c>
-      <c r="G20" t="str">
         <f t="shared" si="8"/>
         <v>9a</v>
       </c>
-      <c r="H20" t="str">
+      <c r="G19" t="str">
+        <f t="shared" si="9"/>
+        <v>9a</v>
+      </c>
+      <c r="H19" t="str">
         <f t="shared" si="2"/>
         <v>3.10_9a</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M20" t="str">
+      <c r="M19" t="str">
         <f t="shared" si="4"/>
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/9a.pdf&amp;embedded=true</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f>"&lt;a href='"&amp;H21&amp;".html'"&amp;I21&amp;"&gt;"</f>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>"&lt;a href='"&amp;H20&amp;".html'"&amp;I20&amp;"&gt;"</f>
         <v>&lt;a href='3.10_9b.html'&gt;</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
         <f t="shared" si="5"/>
         <v>Part 9b</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="7"/>
-        <v>9b</v>
-      </c>
-      <c r="G21" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="8"/>
         <v>9b</v>
       </c>
+      <c r="G20" t="str">
+        <f t="shared" si="9"/>
+        <v>9b</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>3.10_9b</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/9b.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href='3.10_app1.html'&gt;</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ref="G21:G23" si="10">SUBSTITUTE(F21,".","_")</f>
+        <v>app1</v>
+      </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
-        <v>3.10_9b</v>
+        <v>3.10_app1</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="3"/>
@@ -1344,30 +1326,30 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="4"/>
-        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/9b.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/app1.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href='3.10_app1.html'&gt;</v>
+        <v>&lt;a href='3.10_app2.html'&gt;</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ref="G22:G24" si="9">SUBSTITUTE(F22,".","_")</f>
-        <v>app1</v>
+        <f t="shared" si="10"/>
+        <v>app2</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="2"/>
-        <v>3.10_app1</v>
+        <v>3.10_app2</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="3"/>
@@ -1375,67 +1357,36 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="4"/>
-        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/app1.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/app2.pdf&amp;embedded=true</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href='3.10_app2.html'&gt;</v>
+        <v>&lt;a href='3.10_app3.html'&gt;</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="9"/>
-        <v>app2</v>
+        <f t="shared" si="10"/>
+        <v>app3</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="2"/>
-        <v>3.10_app2</v>
+        <v>3.10_app3</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/app2.pdf&amp;embedded=true</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href='3.10_app3.html'&gt;</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="9"/>
-        <v>app3</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>3.10_app3</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M24" t="str">
         <f t="shared" si="4"/>
         <v>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.10/pdfs/app3.pdf&amp;embedded=true</v>
       </c>
